--- a/관리산출물/프로젝트_최종결과보고서/Initial_Test_DATA.xlsx
+++ b/관리산출물/프로젝트_최종결과보고서/Initial_Test_DATA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\관리산출물\프로젝트_최종결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DBB2C43-2884-4FA4-85FB-C134B0FEC3E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2605FB0-8D89-4A3F-83D5-2532B0C39093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{D8C9DEB1-C547-4CCE-B61F-4D7B0E8883F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47D1ADA-E514-4406-8E09-36A6254642BB}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="A1:N24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/관리산출물/프로젝트_최종결과보고서/Initial_Test_DATA.xlsx
+++ b/관리산출물/프로젝트_최종결과보고서/Initial_Test_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home_1\관리산출물\프로젝트_최종결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2605FB0-8D89-4A3F-83D5-2532B0C39093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360CAAA5-1C31-4321-801D-B855B76780C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{D8C9DEB1-C547-4CCE-B61F-4D7B0E8883F6}"/>
   </bookViews>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47D1ADA-E514-4406-8E09-36A6254642BB}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
